--- a/experimentation/FPL results.xlsx
+++ b/experimentation/FPL results.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Type</t>
   </si>
   <si>
     <t>Points</t>
+  </si>
+  <si>
+    <t>Points (w/Captaincy)</t>
   </si>
   <si>
     <t>Quantum</t>
@@ -290,6 +293,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="18.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -298,29 +304,41 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>51.0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>53.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>39.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>36.0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>49.0</v>
       </c>
     </row>
   </sheetData>
